--- a/file/cheonan.xlsx
+++ b/file/cheonan.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72DD4CB9-C307-4B46-8A3C-CC382D3E5150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F92DBD-ACBB-4AEB-A127-608E444F7F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59F7279D-7378-423E-8DC8-9CF6D84836EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>쌍용자이</t>
   </si>
@@ -445,6 +434,10 @@
   </si>
   <si>
     <t>아파트명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +472,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -530,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +541,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,39 +574,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -655,7 +658,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -766,6 +769,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -774,13 +784,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -845,31 +848,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -877,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FE45DD-AFEC-4A1B-AC04-87897A2960D1}">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1244,734 +1227,743 @@
     </row>
     <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
+        <v>7306</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>10377</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>10382</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>23650</v>
+        <v>10382</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>17836</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>23650</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>105354</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>47</v>
+        <v>17836</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>109630</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>105354</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>108523</v>
+        <v>109630</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>26689</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>50</v>
+        <v>108523</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>26768</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>26689</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>26134</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>52</v>
+        <v>26768</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>9991</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>26134</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>11302</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>54</v>
+        <v>9991</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>10094</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>11302</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>7285</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>56</v>
+        <v>10094</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>14324</v>
+        <v>7285</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>10123</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>14324</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>9955</v>
+        <v>10123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>103358</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>60</v>
+        <v>9955</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>7326</v>
+        <v>103358</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>26083</v>
+        <v>7326</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>9811</v>
+        <v>26083</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>25456</v>
+        <v>9811</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>11180</v>
+        <v>25456</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>11473</v>
+        <v>11180</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>7297</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>11473</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>10935</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>68</v>
+        <v>7297</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>7293</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>10935</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>7289</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>70</v>
+        <v>7293</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>11285</v>
+        <v>7289</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>117453</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>11285</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>114687</v>
+        <v>117453</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>26322</v>
+        <v>114687</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>109294</v>
+        <v>26322</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>127119</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>76</v>
+        <v>109294</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>27180</v>
+        <v>127119</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>106845</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>27180</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>110557</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>79</v>
+        <v>106845</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>109293</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>110557</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>134126</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>81</v>
+        <v>109293</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>121913</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>134126</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>111858</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>83</v>
+        <v>121913</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>105337</v>
+        <v>111858</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>106311</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>105337</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>107453</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>86</v>
+        <v>106311</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>142203</v>
+        <v>107453</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>143364</v>
+        <v>142203</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>13053</v>
+        <v>143364</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>124679</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>13053</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>113728</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>91</v>
+        <v>124679</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>7389</v>
+        <v>113728</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>7393</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>7389</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>7387</v>
+        <v>7393</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>7392</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>95</v>
+        <v>7387</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>17300</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>7392</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>7400</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>97</v>
+        <v>17300</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>7395</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>7400</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>100359</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>99</v>
+        <v>7395</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>26517</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>100359</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>27682</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>101</v>
+        <v>26517</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>135648</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>27682</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>19242</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>103</v>
+        <v>135648</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>15430</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>19242</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>107116</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>105</v>
+        <v>15430</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>26258</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>107116</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>26157</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>107</v>
+        <v>26258</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>15420</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>26157</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>107332</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>109</v>
+        <v>15420</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>26891</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>110</v>
+        <v>107332</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>19124</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>111</v>
+        <v>26891</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>116435</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>112</v>
+        <v>19124</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>129755</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>113</v>
+        <v>116435</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>111627</v>
+        <v>129755</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>134767</v>
+        <v>111627</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>24363</v>
+        <v>134767</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>110995</v>
+        <v>24363</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>110018</v>
+        <v>110995</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>114402</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>110018</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>110996</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>120</v>
+        <v>114402</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>133523</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>110996</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>102387</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>122</v>
+        <v>133523</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>7567</v>
+        <v>102387</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>7572</v>
+        <v>7567</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>146718</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>125</v>
+        <v>7572</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>17369</v>
+        <v>146718</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>26577</v>
+        <v>17369</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>126749</v>
+        <v>26577</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>109735</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>129</v>
+        <v>126749</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>7416</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>130</v>
+        <v>109735</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>7426</v>
+        <v>7416</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>7424</v>
+        <v>7426</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
+        <v>7424</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
         <v>110256</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/cheonan.xlsx
+++ b/file/cheonan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F92DBD-ACBB-4AEB-A127-608E444F7F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F060BF-21AA-446F-84FE-ADADC17D9D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59F7279D-7378-423E-8DC8-9CF6D84836EB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59F7279D-7378-423E-8DC8-9CF6D84836EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>쌍용자이</t>
   </si>
@@ -530,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FE45DD-AFEC-4A1B-AC04-87897A2960D1}">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1937,27 +1940,35 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
-        <v>7426</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>131</v>
+    <row r="134" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="5">
+        <v>26534</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>7424</v>
+        <v>7426</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
+        <v>7424</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
         <v>110256</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B137" s="3" t="s">
         <v>133</v>
       </c>
     </row>
